--- a/data/siRNA_bench/mutual_PAX3.xlsx
+++ b/data/siRNA_bench/mutual_PAX3.xlsx
@@ -533,12 +533,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RNAi_2</t>
+          <t>RNAi_3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TACAACACATTGTTGTTGG</t>
+          <t>TTCTTCTCCACGTCAGGCG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['TACAACACATTGTTGTTGG']</t>
+          <t>['TTCTTCTCCACGTCAGGCG']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>CCAACAACAATGTGTTGTA</t>
+          <t>CGCCTGACGTGGAGAAGAA</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -604,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>24.05</v>
+        <v>57.89</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -616,12 +616,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RNAi_1</t>
+          <t>RNAi_5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TATCAGAGCCTTCATCTGA</t>
+          <t>TCTTCCTCTTCTCCACTGC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['TATCAGAGCCTTCATCTGA']</t>
+          <t>['TCTTCCTCTTCTCCACTGC']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>TCAGATGAAGGCTCTGATA</t>
+          <t>GCAGTGGAGAAGAGGAAGA</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -687,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>20.79</v>
+        <v>52.63</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -699,12 +699,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RNAi_4</t>
+          <t>RNAi_6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TGTTCTGCTGTGAAGGTGG</t>
+          <t>TGTTCTAGCTCCTCGATGA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['TGTTCTGCTGTGAAGGTGG']</t>
+          <t>['TGTTCTAGCTCCTCGATGA']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>CCACCTTCACAGCAGAACA</t>
+          <t>TCATCGAGGAGCTAGAACA</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -767,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.11</v>
+        <v>47.37</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -782,12 +782,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TCTTCCTCTTCTCCACTGC</t>
+          <t>TTCCTCTTCTCCACTGCTT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['TCTTCCTCTTCTCCACTGC']</t>
+          <t>['TTCCTCTTCTCCACTGCTT']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>GCAGTGGAGAAGAGGAAGA</t>
+          <t>AAGCAGTGGAGAAGAGGAA</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>14.26</v>
+        <v>47.37</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -865,12 +865,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RNAi_9</t>
+          <t>RNAi_2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TTCCTCTTCTCCACTGCTT</t>
+          <t>TACAACACATTGTTGTTGG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['TTCCTCTTCTCCACTGCTT']</t>
+          <t>['TACAACACATTGTTGTTGG']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -913,15 +913,15 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('ACAACA', 'TGTTGT')]</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>AAGCAGTGGAGAAGAGGAA</t>
+          <t>CCAACAACAATGTGTTGTA</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.26</v>
+        <v>36.84</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -948,12 +948,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RNAi_10</t>
+          <t>RNAi_1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GTCAAGGATTCCTCCATTC</t>
+          <t>TATCAGAGCCTTCATCTGA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['GTCAAGGATTCCTCCATTC']</t>
+          <t>['TATCAGAGCCTTCATCTGA']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -996,15 +996,15 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('TCAGA', 'AGTCT')]</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>GAATGGAGGAATCCTTGAC</t>
+          <t>TCAGATGAAGGCTCTGATA</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>21.79</v>
+        <v>42.11</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -1031,12 +1031,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RNAi_3</t>
+          <t>RNAi_4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TTCTTCTCCACGTCAGGCG</t>
+          <t>TGTTCTGCTGTGAAGGTGG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['TTCTTCTCCACGTCAGGCG']</t>
+          <t>['TGTTCTGCTGTGAAGGTGG']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1079,15 +1079,15 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['ACGT']</t>
+          <t>[('TTC', 'AAG')]</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>CGCCTGACGTGGAGAAGAA</t>
+          <t>CCACCTTCACAGCAGAACA</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>28.05</v>
+        <v>52.63</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1114,12 +1114,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RNAi_8</t>
+          <t>RNAi_10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CATGTGAACACTTCTGTTC</t>
+          <t>GTCAAGGATTCCTCCATTC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['CATGTGAACACTTCTGTTC']</t>
+          <t>['GTCAAGGATTCCTCCATTC']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1162,15 +1162,15 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['CATG']</t>
+          <t>[('AGGA', 'TCCT')]</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>GAACAGAAGTGTTCACATG</t>
+          <t>GAATGGAGGAATCCTTGAC</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1182,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q9" t="n">
-        <v>20.79</v>
+        <v>47.37</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1197,12 +1197,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RNAi_6</t>
+          <t>RNAi_7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TGTTCTAGCTCCTCGATGA</t>
+          <t>TATGTGAATGCATGTCACT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['TGTTCTAGCTCCTCGATGA']</t>
+          <t>['TATGTGAATGCATGTCACT']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1245,15 +1245,15 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['AGCT', 'CTAG', 'TCGA']</t>
+          <t>[('GTGA', 'CACT'), ('ATG', 'TAC')]</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.631578947368421</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>TCATCGAGGAGCTAGAACA</t>
+          <t>AGTGACATGCATTCACATA</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>26.05</v>
+        <v>36.84</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1280,12 +1280,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RNAi_7</t>
+          <t>RNAi_8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TATGTGAATGCATGTCACT</t>
+          <t>CATGTGAACACTTCTGTTC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['TATGTGAATGCATGTCACT']</t>
+          <t>['CATGTGAACACTTCTGTTC']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1328,15 +1328,15 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['CATG', 'TGCA', 'ATGCAT']</t>
+          <t>[('GAACA', 'CTTGT'), ('TGT', 'ACA'), ('GTG', 'CAC')]</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>AGTGACATGCATTCACATA</t>
+          <t>GAACAGAAGTGTTCACATG</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>24.05</v>
+        <v>42.11</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1363,12 +1363,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RNAi_8</t>
+          <t>RNAi_3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ACTCACTGACGGCACGGTGTT</t>
+          <t>CAGAGTCAATATCAGAGCCTT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['ACTCACTGACGGCACGGTGTT']</t>
+          <t>['CAGAGTCAATATCAGAGCCTT']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>AACACCGTGCCGTCAGTGAGT</t>
+          <t>AAGGCTCTGATATTGACTCTG</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.57</v>
+        <v>42.86</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1446,12 +1446,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RNAi_2</t>
+          <t>RNAi_9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GCTGTGAAGGTGGTTCGGCTT</t>
+          <t>ACCATGTGAAACCATTGCCTT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['GCTGTGAAGGTGGTTCGGCTT']</t>
+          <t>['ACCATGTGAAACCATTGCCTT']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1494,15 +1494,15 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('ATG', 'TAC')]</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>AAGCCGAACCACCTTCACAGC</t>
+          <t>AAGGCAATGGTTTCACATGGT</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.86</v>
+        <v>42.86</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1529,12 +1529,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RNAi_4</t>
+          <t>RNAi_6</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GTCAGGCGTTGTCACCTGCTT</t>
+          <t>TCGATCACAGACCGCGTCCTT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['GTCAGGCGTTGTCACCTGCTT']</t>
+          <t>['TCGATCACAGACCGCGTCCTT']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1577,15 +1577,15 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('GAC', 'CTG')]</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>AAGCAGGTGACAACGCCTGAC</t>
+          <t>AAGGACGCGGTCTGTGATCGA</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q14" t="n">
-        <v>34.57</v>
+        <v>57.14</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1612,12 +1612,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AGGATTCCTCCATTCTTGCTT</t>
+          <t>GTGCTTTGGTGTACAGTGCTT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['AGGATTCCTCCATTCTTGCTT']</t>
+          <t>['GTGCTTTGGTGTACAGTGCTT']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1660,15 +1660,15 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('TGT', 'ACA')]</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>AAGCAAGAATGGAGGAATCCT</t>
+          <t>AAGCACTGTACACCAAAGCAC</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1683,7 +1683,7 @@
         <v>-2</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.29</v>
+        <v>47.62</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1695,12 +1695,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RNAi_10</t>
+          <t>RNAi_4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ACTCGCTACGTCATAGTTCTT</t>
+          <t>GTCAGGCGTTGTCACCTGCTT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['ACTCGCTACGTCATAGTTCTT']</t>
+          <t>['GTCAGGCGTTGTCACCTGCTT']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1743,15 +1743,15 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['ACGT']</t>
+          <t>[('CAGG', 'GTCC')]</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>AAGAACTATGACGTAGCGAGT</t>
+          <t>AAGCAGGTGACAACGCCTGAC</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.29</v>
+        <v>57.14</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1778,12 +1778,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RNAi_9</t>
+          <t>RNAi_5</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ACCATGTGAAACCATTGCCTT</t>
+          <t>AGGATTCCTCCATTCTTGCTT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['ACCATGTGAAACCATTGCCTT']</t>
+          <t>['AGGATTCCTCCATTCTTGCTT']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1826,15 +1826,15 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['CATG']</t>
+          <t>[('AGGA', 'TCCT')]</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>AAGGCAATGGTTTCACATGGT</t>
+          <t>AAGCAAGAATGGAGGAATCCT</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q17" t="n">
-        <v>20.29</v>
+        <v>42.86</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1861,12 +1861,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RNAi_3</t>
+          <t>RNAi_7</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CAGAGTCAATATCAGAGCCTT</t>
+          <t>CCTTTACAGCTAGTCTAGCTT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['CAGAGTCAATATCAGAGCCTT']</t>
+          <t>['CCTTTACAGCTAGTCTAGCTT']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1909,15 +1909,15 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['ATAT']</t>
+          <t>[('AGCTAG', 'TCGATC')]</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>AAGGCTCTGATATTGACTCTG</t>
+          <t>AAGCTAGACTAGCTGTAAAGG</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q18" t="n">
-        <v>24.05</v>
+        <v>42.86</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1944,12 +1944,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RNAi_7</t>
+          <t>RNAi_10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CCTTTACAGCTAGTCTAGCTT</t>
+          <t>ACTCGCTACGTCATAGTTCTT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['CCTTTACAGCTAGTCTAGCTT']</t>
+          <t>['ACTCGCTACGTCATAGTTCTT']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1992,15 +1992,15 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>['AGCT', 'CTAG']</t>
+          <t>[('CTA', 'GAT'), ('ACT', 'TGA')]</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>AAGCTAGACTAGCTGTAAAGG</t>
+          <t>AAGAACTATGACGTAGCGAGT</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.29</v>
+        <v>42.86</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -2027,12 +2027,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RNAi_1</t>
+          <t>RNAi_8</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GTGCTTTGGTGTACAGTGCTT</t>
+          <t>ACTCACTGACGGCACGGTGTT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['GTGCTTTGGTGTACAGTGCTT']</t>
+          <t>['ACTCACTGACGGCACGGTGTT']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2075,15 +2075,15 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>['TGTACA', 'GTAC']</t>
+          <t>[('TCA', 'AGT'), ('CAC', 'GTG')]</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>AAGCACTGTACACCAAAGCAC</t>
+          <t>AACACCGTGCCGTCAGTGAGT</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.33</v>
+        <v>57.14</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -2110,12 +2110,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RNAi_6</t>
+          <t>RNAi_2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TCGATCACAGACCGCGTCCTT</t>
+          <t>GCTGTGAAGGTGGTTCGGCTT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['TCGATCACAGACCGCGTCCTT']</t>
+          <t>['GCTGTGAAGGTGGTTCGGCTT']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2158,15 +2158,15 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>['CGCG', 'GATC', 'TCGA']</t>
+          <t>[('GAA', 'CTT'), ('AAG', 'TTC')]</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>AAGGACGCGGTCTGTGATCGA</t>
+          <t>AAGCCGAACCACCTTCACAGC</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2181,7 +2181,7 @@
         <v>-1</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.05</v>
+        <v>57.14</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -2193,12 +2193,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RNAi_2</t>
+          <t>RNAi_1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATTTGTCTCGGATTTCCCAGC</t>
+          <t>AAGTTTGGTACGAGTCTGGGC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['ATTTGTCTCGGATTTCCCAGC']</t>
+          <t>['AAGTTTGGTACGAGTCTGGGC']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>GCTGGGAAATCCGAGACAAAT</t>
+          <t>GCCCAGACTCGTACCAAACTT</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2264,7 +2264,7 @@
         <v>6</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.05</v>
+        <v>52.38</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2276,12 +2276,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RNAi_1</t>
+          <t>RNAi_5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AAGTTTGGTACGAGTCTGGGC</t>
+          <t>AACTAAATTCGGTACTATGTC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['AAGTTTGGTACGAGTCTGGGC']</t>
+          <t>['AACTAAATTCGGTACTATGTC']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2324,15 +2324,15 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['GTAC']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>0.1904761904761905</v>
+        <v>0</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>GCCCAGACTCGTACCAAACTT</t>
+          <t>GACATAGTACCGAATTTAGTT</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>41.1</v>
+        <v>33.33</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2359,12 +2359,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RNAi_4</t>
+          <t>RNAi_2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TTATATCGCCTTGGGCATTGC</t>
+          <t>ATTTGTCTCGGATTTCCCAGC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['TTATATCGCCTTGGGCATTGC']</t>
+          <t>['ATTTGTCTCGGATTTCCCAGC']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>['ATAT', 'TATA']</t>
+          <t>[('GGA', 'CCT')]</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>GCAATGCCCAAGGCGATATAA</t>
+          <t>GCTGGGAAATCCGAGACAAAT</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2430,7 +2430,7 @@
         <v>6</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.81</v>
+        <v>47.62</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2442,12 +2442,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AACTAAATTCGGTACTATGTC</t>
+          <t>TTCACTTACGCGATATCTGGC</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['AACTAAATTCGGTACTATGTC']</t>
+          <t>['TTCACTTACGCGATATCTGGC']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2490,15 +2490,15 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>['AATT', 'GTAC']</t>
+          <t>[('GAT', 'CTA')]</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>GACATAGTACCGAATTTAGTT</t>
+          <t>GCCAGATATCGCGTAAGTGAA</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2510,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.29</v>
+        <v>47.62</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2525,12 +2525,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RNAi_3</t>
+          <t>RNAi_4</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TTCACTTACGCGATATCTGGC</t>
+          <t>TTATATCGCCTTGGGCATTGC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['TTCACTTACGCGATATCTGGC']</t>
+          <t>['TTATATCGCCTTGGGCATTGC']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2573,15 +2573,15 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>['GATATC', 'ATAT', 'CGCG']</t>
+          <t>[('GCC', 'CGG'), ('GCA', 'CGT')]</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>GCCAGATATCGCGTAAGTGAA</t>
+          <t>GCAATGCCCAAGGCGATATAA</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2596,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="Q26" t="n">
-        <v>25.05</v>
+        <v>47.62</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2608,12 +2608,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RNAi_4</t>
+          <t>RNAi_195</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AAACGGAAAGGCGAGTGCGGC</t>
+          <t>AATTATATCCAGGTGAAGGCG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['AAACGGAAAGGCGAGTGCGGC']</t>
+          <t>['AATTATATCCAGGTGAAGGCG']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>GCCGCACTCGCCTTTCCGTTT</t>
+          <t>CGCCTTCACCTGGATATAATT</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2676,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.86</v>
+        <v>42.86</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2695,12 +2695,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RNAi_2</t>
+          <t>RNAi_325</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AACGGAAAGGCGAGTGCGGCG</t>
+          <t>AAATTATATCCAGGTGAAGGC</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['AACGGAAAGGCGAGTGCGGCG']</t>
+          <t>['AAATTATATCCAGGTGAAGGC']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>CGCCGCACTCGCCTTTCCGTT</t>
+          <t>GCCTTCACCTGGATATAATTT</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q28" t="n">
-        <v>51.62</v>
+        <v>38.1</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2782,12 +2782,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RNAi_36</t>
+          <t>RNAi_499</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ATGACCCTCGGGAACTATCCG</t>
+          <t>TTTACTTCTCAGGATGCGGCT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['ATGACCCTCGGGAACTATCCG']</t>
+          <t>['TTTACTTCTCAGGATGCGGCT']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>CGGATAGTTCCCGAGGGTCAT</t>
+          <t>AGCCGCATCCTGAGAAGTAAA</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2850,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.81</v>
+        <v>47.62</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2862,19 +2862,19 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>5`UTR</t>
+          <t>CDS</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_71</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TTCCAGCGGGAACCCGCTACG</t>
+          <t>ATTTACTTCTCAGGATGCGGC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['TTCCAGCGGGAACCCGCTACG']</t>
+          <t>['ATTTACTTCTCAGGATGCGGC']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CGTAGCGGGTTCCCGCTGGAA</t>
+          <t>GCCGCATCCTGAGAAGTAAAT</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2937,10 +2937,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.57</v>
+        <v>47.62</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2956,12 +2956,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RNAi_88</t>
+          <t>RNAi_82</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AGGCGTTGTCACCTGCTTGGG</t>
+          <t>AATTTACTTCTCAGGATGCGG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['AGGCGTTGTCACCTGCTTGGG']</t>
+          <t>['AATTTACTTCTCAGGATGCGG']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>CCCAAGCAGGTGACAACGCCT</t>
+          <t>CCGCATCCTGAGAAGTAAATT</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3024,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q31" t="n">
-        <v>43.1</v>
+        <v>42.86</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -3043,12 +3043,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RNAi_28</t>
+          <t>RNAi_265</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TCTCCTCCTGTGGTGACACCG</t>
+          <t>TTCAGAGTCAATATCAGAGCC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['TCTCCTCCTGTGGTGACACCG']</t>
+          <t>['TTCAGAGTCAATATCAGAGCC']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CGGTGTCACCACAGGAGGAGA</t>
+          <t>GGCTCTGATATTGACTCTGAA</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q32" t="n">
-        <v>31.81</v>
+        <v>42.86</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -3123,19 +3123,19 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>5`UTR</t>
+          <t>CDS</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RNAi_29</t>
+          <t>RNAi_346</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AGTCTGGGCAAATGTTCCAGC</t>
+          <t>TTCTTCTCGCTTTCCTCTGCC</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['AGTCTGGGCAAATGTTCCAGC']</t>
+          <t>['TTCTTCTCGCTTTCCTCTGCC']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>GCTGGAACATTTGCCCAGACT</t>
+          <t>GGCAGAGGAAAGCGAGAAGAA</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.57</v>
+        <v>52.38</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -3210,19 +3210,19 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>5`UTR</t>
+          <t>CDS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RNAi_68</t>
+          <t>RNAi_146</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GTCTGGGCAAATGTTCCAGCG</t>
+          <t>AAGTTTGGTACGAGTCTGGGC</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['GTCTGGGCAAATGTTCCAGCG']</t>
+          <t>['AAGTTTGGTACGAGTCTGGGC']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CGCTGGAACATTTGCCCAGAC</t>
+          <t>GCCCAGACTCGTACCAAACTT</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3285,10 +3285,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.33</v>
+        <v>52.38</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -3304,12 +3304,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RNAi_42</t>
+          <t>RNAi_20</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CTTGCTGCCGCCGATGGCACC</t>
+          <t>TATCCAGGTGAAGGCGAAACG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['CTTGCTGCCGCCGATGGCACC']</t>
+          <t>['TATCCAGGTGAAGGCGAAACG']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>GGTGCCATCGGCGGCAGCAAG</t>
+          <t>CGTTTCGCCTTCACCTGGATA</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3372,10 +3372,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q35" t="n">
-        <v>37.57</v>
+        <v>52.38</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -3384,19 +3384,19 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>5`UTR</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RNAi_64</t>
+          <t>RNAi_21</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CTTGCCCAAACCAGTCTGGGT</t>
+          <t>TGAAGGCGAAACGGAAAGGCG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['CTTGCCCAAACCAGTCTGGGT']</t>
+          <t>['TGAAGGCGAAACGGAAAGGCG']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>ACCCAGACTGGTTTGGGCAAG</t>
+          <t>CGCCTTTCCGTTTCGCCTTCA</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3459,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.81</v>
+        <v>57.14</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -3471,19 +3471,19 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>3`UTR</t>
+          <t>5`UTR</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_3</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TTTATTGCTCCAGGTCTTCCT</t>
+          <t>AATTTACTTCTCAGGATGCGG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['TTTATTGCTCCAGGTCTTCCT']</t>
+          <t>['AATTTACTTCTCAGGATGCGG']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>AGGAAGACCTGGAGCAATAAA</t>
+          <t>CCGCATCCTGAGAAGTAAATT</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3549,7 +3549,7 @@
         <v>7</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.29</v>
+        <v>42.86</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>6</v>
       </c>
       <c r="Q38" t="n">
-        <v>12.76</v>
+        <v>42.86</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3644,12 +3644,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RNAi_7</t>
+          <t>RNAi_1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TATTTAGGAGGTCCTTTACAG</t>
+          <t>TTATATCCAGGTGAAGGCGAA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['TATTTAGGAGGTCCTTTACAG']</t>
+          <t>['TTATATCCAGGTGAAGGCGAA']</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CTGTAAAGGACCTCCTAAATA</t>
+          <t>TTCGCCTTCACCTGGATATAA</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>26.81</v>
+        <v>42.86</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3727,12 +3727,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RNAi_4</t>
+          <t>RNAi_5</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ATAAATGTCAGGGTAATGAGT</t>
+          <t>TTTATTGCTCCAGGTCTTCCT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['ATAAATGTCAGGGTAATGAGT']</t>
+          <t>['TTTATTGCTCCAGGTCTTCCT']</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3775,15 +3775,15 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('AGG', 'TCC')]</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>ACTCATTACCCTGACATTTAT</t>
+          <t>AGGAAGACCTGGAGCAATAAA</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3795,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.57</v>
+        <v>42.86</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3810,12 +3810,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RNAi_3</t>
+          <t>RNAi_7</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AATTTACTTCTCAGGATGCGG</t>
+          <t>TATTTAGGAGGTCCTTTACAG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['AATTTACTTCTCAGGATGCGG']</t>
+          <t>['TATTTAGGAGGTCCTTTACAG']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3858,15 +3858,15 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['AATT']</t>
+          <t>[('AGGA', 'TCCT')]</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CCGCATCCTGAGAAGTAAATT</t>
+          <t>CTGTAAAGGACCTCCTAAATA</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3878,10 +3878,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>27.81</v>
+        <v>38.1</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3893,12 +3893,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RNAi_2</t>
+          <t>RNAi_4</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TAATTTGTCTCGGATTTCCCA</t>
+          <t>ATAAATGTCAGGGTAATGAGT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['TAATTTGTCTCGGATTTCCCA']</t>
+          <t>['ATAAATGTCAGGGTAATGAGT']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3941,15 +3941,15 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['AATT']</t>
+          <t>[('TCA', 'AGT')]</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>TGGGAAATCCGAGACAAATTA</t>
+          <t>ACTCATTACCCTGACATTTAT</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>19.29</v>
+        <v>33.33</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -4024,11 +4024,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['AATT']</t>
+          <t>[('ATT', 'TAA')]</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.29</v>
+        <v>28.57</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -4059,12 +4059,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RNAi_8</t>
+          <t>RNAi_9</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TTATATCGCCTTGGGCATTGC</t>
+          <t>AATTATCTGATCTGGTCTCTA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['TTATATCGCCTTGGGCATTGC']</t>
+          <t>['AATTATCTGATCTGGTCTCTA']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -4107,15 +4107,15 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['ATAT', 'TATA']</t>
+          <t>[('ATC', 'TAG')]</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>GCAATGCCCAAGGCGATATAA</t>
+          <t>TAGAGACCAGATCAGATAATT</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>28.81</v>
+        <v>33.33</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -4142,12 +4142,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RNAi_9</t>
+          <t>RNAi_2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AATTATCTGATCTGGTCTCTA</t>
+          <t>TAATTTGTCTCGGATTTCCCA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['AATTATCTGATCTGGTCTCTA']</t>
+          <t>['TAATTTGTCTCGGATTTCCCA']</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4190,15 +4190,15 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['AATT', 'GATC']</t>
+          <t>[('AAT', 'TTA'), ('GGA', 'CCT')]</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>TAGAGACCAGATCAGATAATT</t>
+          <t>TGGGAAATCCGAGACAAATTA</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4210,10 +4210,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q45" t="n">
-        <v>18.29</v>
+        <v>38.1</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -4225,12 +4225,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RNAi_1</t>
+          <t>RNAi_8</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TTATATCCAGGTGAAGGCGAA</t>
+          <t>TTATATCGCCTTGGGCATTGC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['TTATATCCAGGTGAAGGCGAA']</t>
+          <t>['TTATATCGCCTTGGGCATTGC']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -4273,15 +4273,15 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>['ATAT', 'TATA']</t>
+          <t>[('GCC', 'CGG'), ('GCA', 'CGT')]</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>TTCGCCTTCACCTGGATATAA</t>
+          <t>GCAATGCCCAAGGCGATATAA</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4293,10 +4293,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.57</v>
+        <v>47.62</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
